--- a/SuraClaims/ValidarLitigios_SISE.xlsx
+++ b/SuraClaims/ValidarLitigios_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82439EE-167E-496A-98AA-ED5CE9F355AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65BCD3E-E987-4BF8-B76C-CE550994378A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1DD84D1-6096-4713-BB99-238E83A60C41}"/>
   </bookViews>
@@ -45,10 +45,10 @@
     <t xml:space="preserve">0420172008382 </t>
   </si>
   <si>
-    <t>32556</t>
-  </si>
-  <si>
-    <t>0420194406616</t>
+    <t>0420194406617</t>
+  </si>
+  <si>
+    <t>32557</t>
   </si>
 </sst>
 </file>
@@ -404,10 +404,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -425,10 +428,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/SuraClaims/ValidarLitigios_SISE.xlsx
+++ b/SuraClaims/ValidarLitigios_SISE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65BCD3E-E987-4BF8-B76C-CE550994378A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B596E4-1DC1-438D-B788-5CCE1DF4DAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1DD84D1-6096-4713-BB99-238E83A60C41}"/>
   </bookViews>
@@ -45,10 +45,10 @@
     <t xml:space="preserve">0420172008382 </t>
   </si>
   <si>
-    <t>0420194406617</t>
-  </si>
-  <si>
-    <t>32557</t>
+    <t>32569</t>
+  </si>
+  <si>
+    <t>0420194406718</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,10 +428,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/SuraClaims/ValidarLitigios_SISE.xlsx
+++ b/SuraClaims/ValidarLitigios_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B596E4-1DC1-438D-B788-5CCE1DF4DAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B61FDA-B8AD-4434-963A-5C96B21EA958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1DD84D1-6096-4713-BB99-238E83A60C41}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Ambiente</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>0420194406718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55293  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420172008486 </t>
   </si>
 </sst>
 </file>
@@ -401,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DC6255-F86B-4EC4-8ADE-91A5B341A770}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -439,9 +445,20 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>55277</v>
       </c>
     </row>

--- a/SuraClaims/ValidarLitigios_SISE.xlsx
+++ b/SuraClaims/ValidarLitigios_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B61FDA-B8AD-4434-963A-5C96B21EA958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506DCC4A-E718-43CF-A560-D0EDD9EF20B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1DD84D1-6096-4713-BB99-238E83A60C41}"/>
   </bookViews>
@@ -45,16 +45,16 @@
     <t xml:space="preserve">0420172008382 </t>
   </si>
   <si>
-    <t>32569</t>
-  </si>
-  <si>
-    <t>0420194406718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55293  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0420172008486 </t>
+    <t>32581</t>
+  </si>
+  <si>
+    <t>0420194406824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420172008636  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">55299   </t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,10 +445,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/SuraClaims/ValidarLitigios_SISE.xlsx
+++ b/SuraClaims/ValidarLitigios_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506DCC4A-E718-43CF-A560-D0EDD9EF20B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1B645E-3D8B-4483-9A1F-F37CA9C68BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1DD84D1-6096-4713-BB99-238E83A60C41}"/>
   </bookViews>
@@ -45,16 +45,16 @@
     <t xml:space="preserve">0420172008382 </t>
   </si>
   <si>
-    <t>32581</t>
-  </si>
-  <si>
-    <t>0420194406824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0420172008636  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">55299   </t>
+    <t xml:space="preserve">0420172010219   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">55309     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">32610 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420194406901 </t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,10 +434,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -445,10 +445,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/SuraClaims/ValidarLitigios_SISE.xlsx
+++ b/SuraClaims/ValidarLitigios_SISE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1B645E-3D8B-4483-9A1F-F37CA9C68BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579693B9-82EF-4180-BD7C-85916CD4BBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1DD84D1-6096-4713-BB99-238E83A60C41}"/>
   </bookViews>
@@ -45,16 +45,16 @@
     <t xml:space="preserve">0420172008382 </t>
   </si>
   <si>
-    <t xml:space="preserve">0420172010219   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">55309     </t>
-  </si>
-  <si>
     <t xml:space="preserve">32610 </t>
   </si>
   <si>
     <t xml:space="preserve">0420194406901 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">55323     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420194406901    </t>
   </si>
 </sst>
 </file>
@@ -434,10 +434,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -445,10 +445,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
